--- a/2016년 수강료 8월/방송댄스 수강료.xlsx
+++ b/2016년 수강료 8월/방송댄스 수강료.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>*주야</t>
   </si>
@@ -208,15 +208,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>*수강료</t>
+    <t>2반</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>*수용비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2반</t>
+    <t>*대상금액(수용비)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -354,9 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -662,21 +655,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="9.875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -693,16 +686,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -718,17 +708,12 @@
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13">
-        <f t="shared" ref="F2:F33" si="0">G$56</f>
-        <v>13730</v>
-      </c>
-      <c r="G2" s="12">
-        <f t="shared" ref="G2:G33" si="1">G$57</f>
-        <v>1100</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -744,17 +729,12 @@
       <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -770,17 +750,12 @@
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -796,17 +771,12 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -822,17 +792,12 @@
       <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -848,17 +813,12 @@
       <c r="E7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -874,17 +834,12 @@
       <c r="E8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -900,17 +855,12 @@
       <c r="E9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -926,17 +876,12 @@
       <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -952,17 +897,12 @@
       <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -978,43 +918,33 @@
       <c r="E12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>2</v>
       </c>
-      <c r="C13" s="15">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="14">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15">
         <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1030,17 +960,12 @@
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1056,17 +981,12 @@
       <c r="E15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -1074,25 +994,20 @@
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="16">
+        <v>63</v>
+      </c>
+      <c r="D16" s="15">
         <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="F16" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1108,17 +1023,12 @@
       <c r="E17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1134,17 +1044,12 @@
       <c r="E18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1160,17 +1065,12 @@
       <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="F19" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -1186,17 +1086,12 @@
       <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
@@ -1212,17 +1107,12 @@
       <c r="E21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="F21" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
@@ -1238,17 +1128,12 @@
       <c r="E22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
@@ -1264,17 +1149,12 @@
       <c r="E23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="F23" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
@@ -1290,17 +1170,12 @@
       <c r="E24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="F24" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -1316,17 +1191,12 @@
       <c r="E25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="F25" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1342,17 +1212,12 @@
       <c r="E26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G26" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="F26" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
@@ -1368,17 +1233,12 @@
       <c r="E27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="F27" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
@@ -1394,17 +1254,12 @@
       <c r="E28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="F28" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -1420,17 +1275,12 @@
       <c r="E29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="F29" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -1446,17 +1296,12 @@
       <c r="E30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G30" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="F30" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -1472,17 +1317,12 @@
       <c r="E31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G31" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="F31" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -1498,17 +1338,12 @@
       <c r="E32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G32" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="F32" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
@@ -1524,17 +1359,12 @@
       <c r="E33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="13">
-        <f t="shared" si="0"/>
-        <v>13730</v>
-      </c>
-      <c r="G33" s="12">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="F33" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
@@ -1550,17 +1380,12 @@
       <c r="E34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="13">
-        <f t="shared" ref="F34:F65" si="2">G$56</f>
-        <v>13730</v>
-      </c>
-      <c r="G34" s="12">
-        <f t="shared" ref="G34:G52" si="3">G$57</f>
-        <v>1100</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="F34" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1576,17 +1401,12 @@
       <c r="E35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G35" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F35" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
@@ -1602,17 +1422,12 @@
       <c r="E36" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G36" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="F36" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -1628,17 +1443,12 @@
       <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G37" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="F37" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
@@ -1654,17 +1464,12 @@
       <c r="E38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G38" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="F38" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1680,17 +1485,12 @@
       <c r="E39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G39" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="F39" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
@@ -1706,17 +1506,12 @@
       <c r="E40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G40" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="F40" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
@@ -1732,17 +1527,12 @@
       <c r="E41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G41" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="F41" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
@@ -1758,17 +1548,12 @@
       <c r="E42" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G42" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="F42" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
@@ -1784,17 +1569,12 @@
       <c r="E43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G43" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="F43" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1810,17 +1590,12 @@
       <c r="E44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G44" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="F44" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
@@ -1836,17 +1611,12 @@
       <c r="E45" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G45" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="F45" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -1862,17 +1632,12 @@
       <c r="E46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G46" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="F46" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
@@ -1888,17 +1653,12 @@
       <c r="E47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G47" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="F47" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -1914,17 +1674,12 @@
       <c r="E48" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G48" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="F48" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="7" t="s">
         <v>6</v>
       </c>
@@ -1940,17 +1695,12 @@
       <c r="E49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G49" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="F49" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="7" t="s">
         <v>6</v>
       </c>
@@ -1966,17 +1716,12 @@
       <c r="E50" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G50" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="F50" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -1992,17 +1737,12 @@
       <c r="E51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G51" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="F51" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
@@ -2018,23 +1758,18 @@
       <c r="E52" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="13">
-        <f t="shared" si="2"/>
-        <v>13730</v>
-      </c>
-      <c r="G52" s="12">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="F52" s="12">
+        <v>1100</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
@@ -2049,14 +1784,13 @@
         <f>B56*C56</f>
         <v>700000</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3">
+      <c r="F56" s="3">
         <f>ROUNDUP(E56/51,-1)</f>
         <v>13730</v>
       </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -2071,18 +1805,17 @@
         <f>B57*C57</f>
         <v>56000</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3">
+      <c r="F57" s="3">
         <f>ROUNDUP(E57/51,-1)</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="3">
-        <f>SUM(G56:G57)</f>
+      <c r="F58" s="3">
+        <f>SUM(F56:F57)</f>
         <v>14830</v>
       </c>
     </row>
